--- a/biology/Zoologie/Alsophis_rijgersmaei/Alsophis_rijgersmaei.xlsx
+++ b/biology/Zoologie/Alsophis_rijgersmaei/Alsophis_rijgersmaei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsophis rijgersmaei, la Couresse du Banc d'Anguilla  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsophis rijgersmaei, la Couresse du Banc d'Anguilla  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du banc d'Anguilla[1].
-Elle se rencontre à Anguilla et à Saint-Barthélemy[2].
-Elle n'a pas été observée à Saint-Martin depuis 1991, elle en a probablement disparu à cause de l'introduction volontaire de la mangouste indienne (Herpestes javanicus)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du banc d'Anguilla.
+Elle se rencontre à Anguilla et à Saint-Barthélemy.
+Elle n'a pas été observée à Saint-Martin depuis 1991, elle en a probablement disparu à cause de l'introduction volontaire de la mangouste indienne (Herpestes javanicus).
 Elle est particulièrement menacé par l’activité humaine et par les animaux domestiques comme les chats.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Couresse du Banc d’Anguilla mesure jusqu'à 1 380 mm dont 300 mm de queue, elle est de couleur grise a marron foncé. Elle est principalement diurne et terrestre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Couresse du Banc d’Anguilla mesure jusqu'à 1 380 mm dont 300 mm de queue, elle est de couleur grise a marron foncé. Elle est principalement diurne et terrestre.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle se nourrit principalement de petits reptiles[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle se nourrit principalement de petits reptiles :
 Anolis gingivinus, Ameiva plei, Sphaerodactylus sputator, Sphaerodactylus parvus  et probablement Hemidactylus mabouia sur Saint-Barthélemy et Anguilla.
 Consommait probablement Anolis gingivinus, Anolis pogus, Ameiva plei, Sphaerodactylus sputator  et Sphaerodactylus parvus sur Saint-Martin.</t>
         </is>
@@ -608,7 +626,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur du docteur Hendrik Elingsz van Rijgersma (1835–1877).
 </t>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cope, 1870 "1869" : Seventh Contribution to the Herpetology of Tropical America. Proceedings of the American Philosophical Society, vol. 11, no 81, p. 147-192 (texte intégral).</t>
         </is>
